--- a/final/MKBD_selected_Diag_01.xlsx
+++ b/final/MKBD_selected_Diag_01.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sahiti\Raspberry\BDC&amp;MKBD_Diag_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B86C37F-8A9A-4344-B948-D5677BE69DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF53DAF4-7612-4151-A4D9-CB9C52F6EAD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{8C99C782-3864-466B-8C16-7D246BFC36E2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="72">
   <si>
     <t>Fixed response data</t>
   </si>
@@ -55,9 +55,6 @@
   </si>
   <si>
     <t>DiagnosticSessionControl</t>
-  </si>
-  <si>
-    <t>Coverage</t>
   </si>
   <si>
     <t>Read Data By Identifier</t>
@@ -266,9 +263,6 @@
   </si>
   <si>
     <t>selection</t>
-  </si>
-  <si>
-    <t>true</t>
   </si>
 </sst>
 </file>
@@ -320,7 +314,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -410,21 +404,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right/>
       <top style="medium">
         <color indexed="64"/>
@@ -438,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -463,21 +442,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <extLst>
-        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
-          <xfpb:xfComplement i="0"/>
-        </ext>
-      </extLst>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -488,12 +453,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,23 +521,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
-<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
-  <bag type="Checkbox"/>
-  <bag type="XFControls">
-    <bagId k="CellControl">0</bagId>
-  </bag>
-  <bag type="XFComplement">
-    <bagId k="XFControls">1</bagId>
-  </bag>
-  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
-    <a k="MappedFeaturePropertyBags">
-      <bagId>2</bagId>
-    </a>
-  </bag>
-</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -894,11 +840,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11FEA04B-4A46-4399-B3D5-8280F5ECD3C6}">
-  <dimension ref="A1:J498"/>
+  <dimension ref="A1:I498"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="39" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -911,566 +857,526 @@
     <col min="6" max="6" width="54" customWidth="1"/>
     <col min="7" max="7" width="26.7109375" style="7" customWidth="1"/>
     <col min="8" max="9" width="22.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="F1" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="J2" s="14" t="b">
+      <c r="I2" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J4" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="G5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12" t="b">
+      <c r="F7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="8" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J8" s="12" t="b">
+    </row>
+    <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="1"/>
+      <c r="I9" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+    <row r="10" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>39</v>
+      <c r="F11" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J11" s="12" t="b">
+    </row>
+    <row r="12" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+    <row r="13" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="G14" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J14" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="1"/>
+      <c r="I15" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="12" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>59</v>
-      </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1"/>
       <c r="I16" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J16" s="12" t="b">
+    </row>
+    <row r="17" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" s="1"/>
+      <c r="I17" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+    <row r="18" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="G18" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H18" s="1"/>
       <c r="I18" s="3" t="b">
         <v>1</v>
       </c>
-      <c r="J18" s="12" t="b">
+    </row>
+    <row r="19" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="1"/>
+      <c r="I19" s="3" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="12" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="5"/>
       <c r="B20" s="1"/>
       <c r="C20" s="5"/>
@@ -1480,9 +1386,8 @@
       <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5"/>
       <c r="B21" s="1"/>
       <c r="C21" s="5"/>
@@ -1492,9 +1397,8 @@
       <c r="G21" s="5"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-    </row>
-    <row r="22" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="1"/>
       <c r="C22" s="5"/>
@@ -1504,9 +1408,8 @@
       <c r="G22" s="5"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-    </row>
-    <row r="23" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="5"/>
@@ -1516,9 +1419,8 @@
       <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-    </row>
-    <row r="24" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5"/>
       <c r="B24" s="1"/>
       <c r="C24" s="5"/>
@@ -1528,9 +1430,8 @@
       <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5"/>
       <c r="B25" s="1"/>
       <c r="C25" s="5"/>
@@ -1540,9 +1441,8 @@
       <c r="G25" s="5"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="1"/>
       <c r="C26" s="5"/>
@@ -1552,9 +1452,8 @@
       <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="1"/>
       <c r="C27" s="5"/>
@@ -1564,9 +1463,8 @@
       <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-    </row>
-    <row r="28" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5"/>
       <c r="B28" s="1"/>
       <c r="C28" s="5"/>
@@ -1576,9 +1474,8 @@
       <c r="G28" s="5"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-    </row>
-    <row r="29" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="5"/>
       <c r="B29" s="1"/>
       <c r="C29" s="5"/>
@@ -1588,9 +1485,8 @@
       <c r="G29" s="5"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="5"/>
@@ -1600,9 +1496,8 @@
       <c r="G30" s="5"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31" s="1"/>
       <c r="C31" s="5"/>
@@ -1612,9 +1507,8 @@
       <c r="G31" s="5"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-    </row>
-    <row r="32" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5"/>
       <c r="B32" s="1"/>
       <c r="C32" s="5"/>
@@ -1624,9 +1518,8 @@
       <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-    </row>
-    <row r="33" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5"/>
       <c r="B33" s="1"/>
       <c r="C33" s="5"/>
@@ -1636,9 +1529,8 @@
       <c r="G33" s="5"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-    </row>
-    <row r="34" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5"/>
       <c r="B34" s="1"/>
       <c r="C34" s="5"/>
@@ -1648,9 +1540,8 @@
       <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="1"/>
       <c r="C35" s="5"/>
@@ -1660,9 +1551,8 @@
       <c r="G35" s="5"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-    </row>
-    <row r="36" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="5"/>
       <c r="B36" s="1"/>
       <c r="C36" s="5"/>
@@ -1672,9 +1562,8 @@
       <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-    </row>
-    <row r="37" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="5"/>
       <c r="B37" s="1"/>
       <c r="C37" s="5"/>
@@ -1684,9 +1573,8 @@
       <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-    </row>
-    <row r="38" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="1"/>
       <c r="C38" s="5"/>
@@ -1696,9 +1584,8 @@
       <c r="G38" s="5"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-    </row>
-    <row r="39" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
       <c r="B39" s="1"/>
       <c r="C39" s="5"/>
@@ -1708,9 +1595,8 @@
       <c r="G39" s="5"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-    </row>
-    <row r="40" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="5"/>
       <c r="B40" s="1"/>
       <c r="C40" s="5"/>
@@ -1720,9 +1606,8 @@
       <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-    </row>
-    <row r="41" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="5"/>
       <c r="B41" s="1"/>
       <c r="C41" s="5"/>
@@ -1732,9 +1617,8 @@
       <c r="G41" s="5"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-    </row>
-    <row r="42" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="5"/>
       <c r="B42" s="1"/>
       <c r="C42" s="5"/>
@@ -1744,9 +1628,8 @@
       <c r="G42" s="5"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-    </row>
-    <row r="43" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="5"/>
       <c r="B43" s="1"/>
       <c r="C43" s="5"/>
@@ -1756,9 +1639,8 @@
       <c r="G43" s="5"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-    </row>
-    <row r="44" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="5"/>
       <c r="B44" s="1"/>
       <c r="C44" s="5"/>
@@ -1768,9 +1650,8 @@
       <c r="G44" s="5"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-    </row>
-    <row r="45" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="5"/>
       <c r="B45" s="1"/>
       <c r="C45" s="5"/>
@@ -1780,9 +1661,8 @@
       <c r="G45" s="5"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-    </row>
-    <row r="46" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="5"/>
       <c r="B46" s="1"/>
       <c r="C46" s="5"/>
@@ -1792,9 +1672,8 @@
       <c r="G46" s="5"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-    </row>
-    <row r="47" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="1"/>
       <c r="C47" s="5"/>
@@ -1804,9 +1683,8 @@
       <c r="G47" s="5"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-    </row>
-    <row r="48" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="5"/>
       <c r="B48" s="1"/>
       <c r="C48" s="5"/>
@@ -1816,9 +1694,8 @@
       <c r="G48" s="5"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="5"/>
       <c r="B49" s="1"/>
       <c r="C49" s="5"/>
@@ -1828,9 +1705,8 @@
       <c r="G49" s="5"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-    </row>
-    <row r="50" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="5"/>
       <c r="B50" s="1"/>
       <c r="C50" s="5"/>
@@ -1840,9 +1716,8 @@
       <c r="G50" s="5"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-    </row>
-    <row r="51" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="5"/>
       <c r="B51" s="1"/>
       <c r="C51" s="5"/>
@@ -1852,9 +1727,8 @@
       <c r="G51" s="5"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-    </row>
-    <row r="52" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="5"/>
       <c r="B52" s="1"/>
       <c r="C52" s="5"/>
@@ -1864,9 +1738,8 @@
       <c r="G52" s="5"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-    </row>
-    <row r="53" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="5"/>
       <c r="B53" s="1"/>
       <c r="C53" s="5"/>
@@ -1876,9 +1749,8 @@
       <c r="G53" s="5"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-    </row>
-    <row r="54" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="5"/>
       <c r="B54" s="1"/>
       <c r="C54" s="5"/>
@@ -1888,9 +1760,8 @@
       <c r="G54" s="5"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-    </row>
-    <row r="55" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="5"/>
       <c r="B55" s="1"/>
       <c r="C55" s="5"/>
@@ -1900,9 +1771,8 @@
       <c r="G55" s="5"/>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
-    </row>
-    <row r="56" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="5"/>
       <c r="B56" s="1"/>
       <c r="C56" s="5"/>
@@ -1912,9 +1782,8 @@
       <c r="G56" s="5"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1"/>
-    </row>
-    <row r="57" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="5"/>
       <c r="B57" s="1"/>
       <c r="C57" s="5"/>
@@ -1924,9 +1793,8 @@
       <c r="G57" s="5"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-    </row>
-    <row r="58" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="5"/>
       <c r="B58" s="1"/>
       <c r="C58" s="5"/>
@@ -1936,9 +1804,8 @@
       <c r="G58" s="5"/>
       <c r="H58" s="1"/>
       <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="1"/>
       <c r="C59" s="5"/>
@@ -1948,9 +1815,8 @@
       <c r="G59" s="5"/>
       <c r="H59" s="1"/>
       <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
-    </row>
-    <row r="60" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="5"/>
       <c r="B60" s="1"/>
       <c r="C60" s="5"/>
@@ -1960,9 +1826,8 @@
       <c r="G60" s="5"/>
       <c r="H60" s="1"/>
       <c r="I60" s="1"/>
-      <c r="J60" s="1"/>
-    </row>
-    <row r="61" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="5"/>
       <c r="B61" s="1"/>
       <c r="C61" s="5"/>
@@ -1972,9 +1837,8 @@
       <c r="G61" s="5"/>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
-      <c r="J61" s="1"/>
-    </row>
-    <row r="62" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="5"/>
       <c r="B62" s="1"/>
       <c r="C62" s="5"/>
@@ -1984,9 +1848,8 @@
       <c r="G62" s="5"/>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
-      <c r="J62" s="1"/>
-    </row>
-    <row r="63" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="5"/>
       <c r="B63" s="1"/>
       <c r="C63" s="5"/>
@@ -1996,9 +1859,8 @@
       <c r="G63" s="5"/>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
-      <c r="J63" s="1"/>
-    </row>
-    <row r="64" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="5"/>
       <c r="B64" s="1"/>
       <c r="C64" s="5"/>
@@ -2008,9 +1870,8 @@
       <c r="G64" s="5"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-      <c r="J64" s="1"/>
-    </row>
-    <row r="65" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="5"/>
       <c r="B65" s="1"/>
       <c r="C65" s="5"/>
@@ -2020,9 +1881,8 @@
       <c r="G65" s="5"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-    </row>
-    <row r="66" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="5"/>
       <c r="B66" s="1"/>
       <c r="C66" s="5"/>
@@ -2032,9 +1892,8 @@
       <c r="G66" s="5"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-      <c r="J66" s="1"/>
-    </row>
-    <row r="67" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="5"/>
       <c r="B67" s="1"/>
       <c r="C67" s="5"/>
@@ -2044,9 +1903,8 @@
       <c r="G67" s="5"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-      <c r="J67" s="1"/>
-    </row>
-    <row r="68" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="5"/>
       <c r="B68" s="1"/>
       <c r="C68" s="5"/>
@@ -2056,9 +1914,8 @@
       <c r="G68" s="5"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-      <c r="J68" s="1"/>
-    </row>
-    <row r="69" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="5"/>
       <c r="B69" s="1"/>
       <c r="C69" s="5"/>
@@ -2068,9 +1925,8 @@
       <c r="G69" s="5"/>
       <c r="H69" s="1"/>
       <c r="I69" s="1"/>
-      <c r="J69" s="1"/>
-    </row>
-    <row r="70" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="5"/>
       <c r="B70" s="1"/>
       <c r="C70" s="5"/>
@@ -2080,9 +1936,8 @@
       <c r="G70" s="5"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-      <c r="J70" s="1"/>
-    </row>
-    <row r="71" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="1"/>
       <c r="C71" s="5"/>
@@ -2092,9 +1947,8 @@
       <c r="G71" s="5"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-      <c r="J71" s="1"/>
-    </row>
-    <row r="72" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="5"/>
       <c r="B72" s="1"/>
       <c r="C72" s="5"/>
@@ -2104,9 +1958,8 @@
       <c r="G72" s="5"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-      <c r="J72" s="1"/>
-    </row>
-    <row r="73" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="5"/>
       <c r="B73" s="1"/>
       <c r="C73" s="5"/>
@@ -2116,9 +1969,8 @@
       <c r="G73" s="5"/>
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
-      <c r="J73" s="1"/>
-    </row>
-    <row r="74" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="5"/>
       <c r="B74" s="1"/>
       <c r="C74" s="5"/>
@@ -2128,9 +1980,8 @@
       <c r="G74" s="5"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-      <c r="J74" s="1"/>
-    </row>
-    <row r="75" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="5"/>
       <c r="B75" s="1"/>
       <c r="C75" s="5"/>
@@ -2140,9 +1991,8 @@
       <c r="G75" s="5"/>
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
-      <c r="J75" s="1"/>
-    </row>
-    <row r="76" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="5"/>
       <c r="B76" s="1"/>
       <c r="C76" s="5"/>
@@ -2152,9 +2002,8 @@
       <c r="G76" s="5"/>
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
-    </row>
-    <row r="77" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="5"/>
       <c r="B77" s="1"/>
       <c r="C77" s="5"/>
@@ -2164,9 +2013,8 @@
       <c r="G77" s="5"/>
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
-    </row>
-    <row r="78" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5"/>
       <c r="B78" s="1"/>
       <c r="C78" s="5"/>
@@ -2176,9 +2024,8 @@
       <c r="G78" s="5"/>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
-      <c r="J78" s="1"/>
-    </row>
-    <row r="79" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5"/>
       <c r="B79" s="1"/>
       <c r="C79" s="5"/>
@@ -2188,9 +2035,8 @@
       <c r="G79" s="5"/>
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5"/>
       <c r="B80" s="1"/>
       <c r="C80" s="5"/>
@@ -2200,9 +2046,8 @@
       <c r="G80" s="5"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-    </row>
-    <row r="81" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5"/>
       <c r="B81" s="1"/>
       <c r="C81" s="5"/>
@@ -2212,9 +2057,8 @@
       <c r="G81" s="5"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-    </row>
-    <row r="82" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5"/>
       <c r="B82" s="1"/>
       <c r="C82" s="5"/>
@@ -2224,9 +2068,8 @@
       <c r="G82" s="5"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-    </row>
-    <row r="83" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="1"/>
       <c r="C83" s="5"/>
@@ -2236,9 +2079,8 @@
       <c r="G83" s="5"/>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
-      <c r="J83" s="1"/>
-    </row>
-    <row r="84" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5"/>
       <c r="B84" s="1"/>
       <c r="C84" s="5"/>
@@ -2248,9 +2090,8 @@
       <c r="G84" s="5"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-      <c r="J84" s="1"/>
-    </row>
-    <row r="85" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="5"/>
       <c r="B85" s="1"/>
       <c r="C85" s="5"/>
@@ -2260,9 +2101,8 @@
       <c r="G85" s="5"/>
       <c r="H85" s="1"/>
       <c r="I85" s="1"/>
-      <c r="J85" s="1"/>
-    </row>
-    <row r="86" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="5"/>
       <c r="B86" s="1"/>
       <c r="C86" s="5"/>
@@ -2272,9 +2112,8 @@
       <c r="G86" s="5"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-      <c r="J86" s="1"/>
-    </row>
-    <row r="87" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="5"/>
       <c r="B87" s="1"/>
       <c r="C87" s="5"/>
@@ -2284,9 +2123,8 @@
       <c r="G87" s="5"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-      <c r="J87" s="1"/>
-    </row>
-    <row r="88" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="5"/>
       <c r="B88" s="1"/>
       <c r="C88" s="5"/>
@@ -2296,9 +2134,8 @@
       <c r="G88" s="5"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-      <c r="J88" s="1"/>
-    </row>
-    <row r="89" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="5"/>
       <c r="B89" s="1"/>
       <c r="C89" s="5"/>
@@ -2308,9 +2145,8 @@
       <c r="G89" s="5"/>
       <c r="H89" s="1"/>
       <c r="I89" s="1"/>
-      <c r="J89" s="1"/>
-    </row>
-    <row r="90" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="5"/>
       <c r="B90" s="1"/>
       <c r="C90" s="5"/>
@@ -2320,9 +2156,8 @@
       <c r="G90" s="5"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-      <c r="J90" s="1"/>
-    </row>
-    <row r="91" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5"/>
       <c r="B91" s="1"/>
       <c r="C91" s="5"/>
@@ -2332,9 +2167,8 @@
       <c r="G91" s="5"/>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
-      <c r="J91" s="1"/>
-    </row>
-    <row r="92" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="5"/>
       <c r="B92" s="1"/>
       <c r="C92" s="5"/>
@@ -2344,9 +2178,8 @@
       <c r="G92" s="5"/>
       <c r="H92" s="1"/>
       <c r="I92" s="1"/>
-      <c r="J92" s="1"/>
-    </row>
-    <row r="93" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5"/>
       <c r="B93" s="1"/>
       <c r="C93" s="5"/>
@@ -2356,9 +2189,8 @@
       <c r="G93" s="5"/>
       <c r="H93" s="1"/>
       <c r="I93" s="1"/>
-      <c r="J93" s="1"/>
-    </row>
-    <row r="94" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5"/>
       <c r="B94" s="1"/>
       <c r="C94" s="5"/>
@@ -2368,9 +2200,8 @@
       <c r="G94" s="5"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-      <c r="J94" s="1"/>
-    </row>
-    <row r="95" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5"/>
       <c r="B95" s="1"/>
       <c r="C95" s="5"/>
@@ -2380,9 +2211,8 @@
       <c r="G95" s="5"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-      <c r="J95" s="1"/>
-    </row>
-    <row r="96" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5"/>
       <c r="B96" s="1"/>
       <c r="C96" s="5"/>
@@ -2392,9 +2222,8 @@
       <c r="G96" s="5"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-      <c r="J96" s="1"/>
-    </row>
-    <row r="97" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5"/>
       <c r="B97" s="1"/>
       <c r="C97" s="5"/>
@@ -2404,9 +2233,8 @@
       <c r="G97" s="5"/>
       <c r="H97" s="1"/>
       <c r="I97" s="1"/>
-      <c r="J97" s="1"/>
-    </row>
-    <row r="98" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5"/>
       <c r="B98" s="1"/>
       <c r="C98" s="5"/>
@@ -2416,9 +2244,8 @@
       <c r="G98" s="5"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-      <c r="J98" s="1"/>
-    </row>
-    <row r="99" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5"/>
       <c r="B99" s="1"/>
       <c r="C99" s="5"/>
@@ -2428,9 +2255,8 @@
       <c r="G99" s="5"/>
       <c r="H99" s="1"/>
       <c r="I99" s="1"/>
-      <c r="J99" s="1"/>
-    </row>
-    <row r="100" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="5"/>
       <c r="B100" s="1"/>
       <c r="C100" s="5"/>
@@ -2440,9 +2266,8 @@
       <c r="G100" s="5"/>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-    </row>
-    <row r="101" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="5"/>
       <c r="B101" s="1"/>
       <c r="C101" s="5"/>
@@ -2452,9 +2277,8 @@
       <c r="G101" s="5"/>
       <c r="H101" s="1"/>
       <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-    </row>
-    <row r="102" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="5"/>
       <c r="B102" s="1"/>
       <c r="C102" s="5"/>
@@ -2464,9 +2288,8 @@
       <c r="G102" s="5"/>
       <c r="H102" s="1"/>
       <c r="I102" s="1"/>
-      <c r="J102" s="1"/>
-    </row>
-    <row r="103" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="5"/>
       <c r="B103" s="1"/>
       <c r="C103" s="5"/>
@@ -2476,9 +2299,8 @@
       <c r="G103" s="5"/>
       <c r="H103" s="1"/>
       <c r="I103" s="1"/>
-      <c r="J103" s="1"/>
-    </row>
-    <row r="104" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5"/>
       <c r="B104" s="1"/>
       <c r="C104" s="5"/>
@@ -2488,9 +2310,8 @@
       <c r="G104" s="5"/>
       <c r="H104" s="1"/>
       <c r="I104" s="1"/>
-      <c r="J104" s="1"/>
-    </row>
-    <row r="105" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5"/>
       <c r="B105" s="1"/>
       <c r="C105" s="5"/>
@@ -2500,9 +2321,8 @@
       <c r="G105" s="5"/>
       <c r="H105" s="1"/>
       <c r="I105" s="1"/>
-      <c r="J105" s="1"/>
-    </row>
-    <row r="106" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="5"/>
       <c r="B106" s="1"/>
       <c r="C106" s="5"/>
@@ -2512,9 +2332,8 @@
       <c r="G106" s="5"/>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
-      <c r="J106" s="1"/>
-    </row>
-    <row r="107" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="5"/>
       <c r="B107" s="1"/>
       <c r="C107" s="5"/>
@@ -2524,9 +2343,8 @@
       <c r="G107" s="5"/>
       <c r="H107" s="1"/>
       <c r="I107" s="1"/>
-      <c r="J107" s="1"/>
-    </row>
-    <row r="108" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="5"/>
       <c r="B108" s="1"/>
       <c r="C108" s="5"/>
@@ -2536,9 +2354,8 @@
       <c r="G108" s="5"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-      <c r="J108" s="1"/>
-    </row>
-    <row r="109" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
       <c r="B109" s="1"/>
       <c r="C109" s="5"/>
@@ -2548,9 +2365,8 @@
       <c r="G109" s="5"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-      <c r="J109" s="1"/>
-    </row>
-    <row r="110" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="5"/>
       <c r="B110" s="1"/>
       <c r="C110" s="5"/>
@@ -2560,9 +2376,8 @@
       <c r="G110" s="5"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-      <c r="J110" s="1"/>
-    </row>
-    <row r="111" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="5"/>
       <c r="B111" s="1"/>
       <c r="C111" s="5"/>
@@ -2572,9 +2387,8 @@
       <c r="G111" s="5"/>
       <c r="H111" s="1"/>
       <c r="I111" s="1"/>
-      <c r="J111" s="1"/>
-    </row>
-    <row r="112" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="5"/>
       <c r="B112" s="1"/>
       <c r="C112" s="5"/>
@@ -2584,9 +2398,8 @@
       <c r="G112" s="5"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-      <c r="J112" s="1"/>
-    </row>
-    <row r="113" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="5"/>
       <c r="B113" s="1"/>
       <c r="C113" s="5"/>
@@ -2596,9 +2409,8 @@
       <c r="G113" s="5"/>
       <c r="H113" s="1"/>
       <c r="I113" s="1"/>
-      <c r="J113" s="1"/>
-    </row>
-    <row r="114" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="5"/>
       <c r="B114" s="1"/>
       <c r="C114" s="5"/>
@@ -2608,9 +2420,8 @@
       <c r="G114" s="5"/>
       <c r="H114" s="1"/>
       <c r="I114" s="1"/>
-      <c r="J114" s="1"/>
-    </row>
-    <row r="115" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="5"/>
       <c r="B115" s="1"/>
       <c r="C115" s="5"/>
@@ -2620,9 +2431,8 @@
       <c r="G115" s="5"/>
       <c r="H115" s="1"/>
       <c r="I115" s="1"/>
-      <c r="J115" s="1"/>
-    </row>
-    <row r="116" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="5"/>
       <c r="B116" s="1"/>
       <c r="C116" s="5"/>
@@ -2632,9 +2442,8 @@
       <c r="G116" s="5"/>
       <c r="H116" s="1"/>
       <c r="I116" s="1"/>
-      <c r="J116" s="1"/>
-    </row>
-    <row r="117" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="5"/>
       <c r="B117" s="1"/>
       <c r="C117" s="5"/>
@@ -2644,9 +2453,8 @@
       <c r="G117" s="5"/>
       <c r="H117" s="1"/>
       <c r="I117" s="1"/>
-      <c r="J117" s="1"/>
-    </row>
-    <row r="118" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="5"/>
       <c r="B118" s="1"/>
       <c r="C118" s="5"/>
@@ -2656,9 +2464,8 @@
       <c r="G118" s="5"/>
       <c r="H118" s="1"/>
       <c r="I118" s="1"/>
-      <c r="J118" s="1"/>
-    </row>
-    <row r="119" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="5"/>
       <c r="B119" s="1"/>
       <c r="C119" s="5"/>
@@ -2668,9 +2475,8 @@
       <c r="G119" s="5"/>
       <c r="H119" s="1"/>
       <c r="I119" s="1"/>
-      <c r="J119" s="1"/>
-    </row>
-    <row r="120" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="5"/>
       <c r="B120" s="1"/>
       <c r="C120" s="5"/>
@@ -2680,9 +2486,8 @@
       <c r="G120" s="5"/>
       <c r="H120" s="1"/>
       <c r="I120" s="1"/>
-      <c r="J120" s="1"/>
-    </row>
-    <row r="121" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="5"/>
       <c r="B121" s="1"/>
       <c r="C121" s="5"/>
@@ -2692,9 +2497,8 @@
       <c r="G121" s="5"/>
       <c r="H121" s="1"/>
       <c r="I121" s="1"/>
-      <c r="J121" s="1"/>
-    </row>
-    <row r="122" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="5"/>
       <c r="B122" s="1"/>
       <c r="C122" s="5"/>
@@ -2704,9 +2508,8 @@
       <c r="G122" s="5"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-      <c r="J122" s="1"/>
-    </row>
-    <row r="123" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="5"/>
       <c r="B123" s="1"/>
       <c r="C123" s="5"/>
@@ -2716,9 +2519,8 @@
       <c r="G123" s="5"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-      <c r="J123" s="1"/>
-    </row>
-    <row r="124" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="5"/>
       <c r="B124" s="1"/>
       <c r="C124" s="5"/>
@@ -2728,9 +2530,8 @@
       <c r="G124" s="5"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-      <c r="J124" s="1"/>
-    </row>
-    <row r="125" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="5"/>
       <c r="B125" s="1"/>
       <c r="C125" s="5"/>
@@ -2740,9 +2541,8 @@
       <c r="G125" s="5"/>
       <c r="H125" s="1"/>
       <c r="I125" s="1"/>
-      <c r="J125" s="1"/>
-    </row>
-    <row r="126" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="5"/>
       <c r="B126" s="1"/>
       <c r="C126" s="5"/>
@@ -2752,9 +2552,8 @@
       <c r="G126" s="5"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-      <c r="J126" s="1"/>
-    </row>
-    <row r="127" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="5"/>
       <c r="B127" s="1"/>
       <c r="C127" s="5"/>
@@ -2763,9 +2562,8 @@
       <c r="G127" s="5"/>
       <c r="H127" s="1"/>
       <c r="I127" s="1"/>
-      <c r="J127" s="1"/>
-    </row>
-    <row r="128" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="5"/>
       <c r="B128" s="1"/>
       <c r="C128" s="5"/>
@@ -2775,9 +2573,8 @@
       <c r="G128" s="5"/>
       <c r="H128" s="1"/>
       <c r="I128" s="1"/>
-      <c r="J128" s="1"/>
-    </row>
-    <row r="129" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="5"/>
       <c r="B129" s="1"/>
       <c r="C129" s="5"/>
@@ -2786,9 +2583,8 @@
       <c r="G129" s="5"/>
       <c r="H129" s="1"/>
       <c r="I129" s="1"/>
-      <c r="J129" s="1"/>
-    </row>
-    <row r="130" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="5"/>
       <c r="B130" s="1"/>
       <c r="C130" s="5"/>
@@ -2798,9 +2594,8 @@
       <c r="G130" s="5"/>
       <c r="H130" s="1"/>
       <c r="I130" s="1"/>
-      <c r="J130" s="1"/>
-    </row>
-    <row r="131" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="5"/>
       <c r="B131" s="1"/>
       <c r="C131" s="5"/>
@@ -2810,9 +2605,8 @@
       <c r="G131" s="5"/>
       <c r="H131" s="1"/>
       <c r="I131" s="1"/>
-      <c r="J131" s="1"/>
-    </row>
-    <row r="132" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="5"/>
       <c r="B132" s="1"/>
       <c r="C132" s="5"/>
@@ -2822,9 +2616,8 @@
       <c r="G132" s="5"/>
       <c r="H132" s="1"/>
       <c r="I132" s="1"/>
-      <c r="J132" s="1"/>
-    </row>
-    <row r="133" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="5"/>
       <c r="B133" s="1"/>
       <c r="C133" s="5"/>
@@ -2834,9 +2627,8 @@
       <c r="G133" s="5"/>
       <c r="H133" s="1"/>
       <c r="I133" s="1"/>
-      <c r="J133" s="1"/>
-    </row>
-    <row r="134" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="5"/>
       <c r="B134" s="1"/>
       <c r="C134" s="5"/>
@@ -2846,9 +2638,8 @@
       <c r="G134" s="5"/>
       <c r="H134" s="1"/>
       <c r="I134" s="1"/>
-      <c r="J134" s="1"/>
-    </row>
-    <row r="135" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="5"/>
       <c r="B135" s="1"/>
       <c r="C135" s="5"/>
@@ -2857,9 +2648,8 @@
       <c r="G135" s="5"/>
       <c r="H135" s="1"/>
       <c r="I135" s="1"/>
-      <c r="J135" s="1"/>
-    </row>
-    <row r="136" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="5"/>
       <c r="B136" s="1"/>
       <c r="C136" s="5"/>
@@ -2869,9 +2659,8 @@
       <c r="G136" s="5"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-      <c r="J136" s="1"/>
-    </row>
-    <row r="137" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="5"/>
       <c r="B137" s="1"/>
       <c r="C137" s="5"/>
@@ -2881,9 +2670,8 @@
       <c r="G137" s="5"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-      <c r="J137" s="1"/>
-    </row>
-    <row r="138" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="5"/>
       <c r="B138" s="1"/>
       <c r="C138" s="5"/>
@@ -2893,9 +2681,8 @@
       <c r="G138" s="5"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-      <c r="J138" s="1"/>
-    </row>
-    <row r="139" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="5"/>
       <c r="B139" s="1"/>
       <c r="C139" s="5"/>
@@ -2905,9 +2692,8 @@
       <c r="G139" s="5"/>
       <c r="H139" s="1"/>
       <c r="I139" s="1"/>
-      <c r="J139" s="1"/>
-    </row>
-    <row r="140" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="5"/>
       <c r="B140" s="1"/>
       <c r="C140" s="5"/>
@@ -2917,9 +2703,8 @@
       <c r="G140" s="5"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-      <c r="J140" s="1"/>
-    </row>
-    <row r="141" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="5"/>
       <c r="B141" s="1"/>
       <c r="C141" s="5"/>
@@ -2929,9 +2714,8 @@
       <c r="G141" s="5"/>
       <c r="H141" s="1"/>
       <c r="I141" s="1"/>
-      <c r="J141" s="1"/>
-    </row>
-    <row r="142" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="5"/>
       <c r="B142" s="1"/>
       <c r="C142" s="5"/>
@@ -2941,9 +2725,8 @@
       <c r="G142" s="5"/>
       <c r="H142" s="1"/>
       <c r="I142" s="1"/>
-      <c r="J142" s="1"/>
-    </row>
-    <row r="143" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="5"/>
       <c r="B143" s="1"/>
       <c r="C143" s="5"/>
@@ -2953,9 +2736,8 @@
       <c r="G143" s="5"/>
       <c r="H143" s="1"/>
       <c r="I143" s="1"/>
-      <c r="J143" s="1"/>
-    </row>
-    <row r="144" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="5"/>
       <c r="B144" s="1"/>
       <c r="C144" s="5"/>
@@ -2965,9 +2747,8 @@
       <c r="G144" s="5"/>
       <c r="H144" s="1"/>
       <c r="I144" s="1"/>
-      <c r="J144" s="1"/>
-    </row>
-    <row r="145" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="5"/>
       <c r="B145" s="1"/>
       <c r="C145" s="5"/>
@@ -2977,9 +2758,8 @@
       <c r="G145" s="5"/>
       <c r="H145" s="1"/>
       <c r="I145" s="1"/>
-      <c r="J145" s="1"/>
-    </row>
-    <row r="146" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="5"/>
       <c r="B146" s="1"/>
       <c r="C146" s="5"/>
@@ -2989,9 +2769,8 @@
       <c r="G146" s="5"/>
       <c r="H146" s="1"/>
       <c r="I146" s="1"/>
-      <c r="J146" s="1"/>
-    </row>
-    <row r="147" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="5"/>
       <c r="B147" s="1"/>
       <c r="C147" s="5"/>
@@ -3001,9 +2780,8 @@
       <c r="G147" s="5"/>
       <c r="H147" s="1"/>
       <c r="I147" s="1"/>
-      <c r="J147" s="1"/>
-    </row>
-    <row r="148" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="5"/>
       <c r="B148" s="1"/>
       <c r="C148" s="5"/>
@@ -3013,9 +2791,8 @@
       <c r="G148" s="5"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-      <c r="J148" s="1"/>
-    </row>
-    <row r="149" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="5"/>
       <c r="B149" s="1"/>
       <c r="C149" s="5"/>
@@ -3025,9 +2802,8 @@
       <c r="G149" s="5"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-      <c r="J149" s="1"/>
-    </row>
-    <row r="150" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="5"/>
       <c r="B150" s="1"/>
       <c r="C150" s="5"/>
@@ -3037,9 +2813,8 @@
       <c r="G150" s="5"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-      <c r="J150" s="1"/>
-    </row>
-    <row r="151" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="5"/>
       <c r="B151" s="1"/>
       <c r="C151" s="5"/>
@@ -3049,9 +2824,8 @@
       <c r="G151" s="5"/>
       <c r="H151" s="1"/>
       <c r="I151" s="1"/>
-      <c r="J151" s="1"/>
-    </row>
-    <row r="152" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="5"/>
       <c r="B152" s="1"/>
       <c r="C152" s="5"/>
@@ -3061,9 +2835,8 @@
       <c r="G152" s="5"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-      <c r="J152" s="1"/>
-    </row>
-    <row r="153" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="5"/>
       <c r="B153" s="1"/>
       <c r="C153" s="5"/>
@@ -3073,9 +2846,8 @@
       <c r="G153" s="5"/>
       <c r="H153" s="1"/>
       <c r="I153" s="1"/>
-      <c r="J153" s="1"/>
-    </row>
-    <row r="154" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="5"/>
       <c r="B154" s="1"/>
       <c r="C154" s="5"/>
@@ -3085,9 +2857,8 @@
       <c r="G154" s="5"/>
       <c r="H154" s="1"/>
       <c r="I154" s="1"/>
-      <c r="J154" s="1"/>
-    </row>
-    <row r="155" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="5"/>
       <c r="B155" s="1"/>
       <c r="C155" s="5"/>
@@ -3097,9 +2868,8 @@
       <c r="G155" s="5"/>
       <c r="H155" s="1"/>
       <c r="I155" s="1"/>
-      <c r="J155" s="1"/>
-    </row>
-    <row r="156" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="5"/>
       <c r="B156" s="1"/>
       <c r="C156" s="5"/>
@@ -3109,9 +2879,8 @@
       <c r="G156" s="5"/>
       <c r="H156" s="1"/>
       <c r="I156" s="1"/>
-      <c r="J156" s="1"/>
-    </row>
-    <row r="157" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="5"/>
       <c r="B157" s="1"/>
       <c r="C157" s="5"/>
@@ -3121,9 +2890,8 @@
       <c r="G157" s="5"/>
       <c r="H157" s="1"/>
       <c r="I157" s="1"/>
-      <c r="J157" s="1"/>
-    </row>
-    <row r="158" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="5"/>
       <c r="B158" s="1"/>
       <c r="C158" s="5"/>
@@ -3133,9 +2901,8 @@
       <c r="G158" s="5"/>
       <c r="H158" s="1"/>
       <c r="I158" s="1"/>
-      <c r="J158" s="1"/>
-    </row>
-    <row r="159" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="5"/>
       <c r="B159" s="1"/>
       <c r="C159" s="5"/>
@@ -3145,9 +2912,8 @@
       <c r="G159" s="5"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-      <c r="J159" s="1"/>
-    </row>
-    <row r="160" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="5"/>
       <c r="B160" s="1"/>
       <c r="C160" s="5"/>
@@ -3157,9 +2923,8 @@
       <c r="G160" s="5"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-      <c r="J160" s="1"/>
-    </row>
-    <row r="161" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="5"/>
       <c r="B161" s="1"/>
       <c r="C161" s="5"/>
@@ -3169,9 +2934,8 @@
       <c r="G161" s="5"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-      <c r="J161" s="1"/>
-    </row>
-    <row r="162" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="5"/>
       <c r="B162" s="1"/>
       <c r="C162" s="5"/>
@@ -3181,9 +2945,8 @@
       <c r="G162" s="5"/>
       <c r="H162" s="1"/>
       <c r="I162" s="1"/>
-      <c r="J162" s="1"/>
-    </row>
-    <row r="163" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="5"/>
       <c r="B163" s="1"/>
       <c r="C163" s="5"/>
@@ -3193,9 +2956,8 @@
       <c r="G163" s="5"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-      <c r="J163" s="1"/>
-    </row>
-    <row r="164" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="5"/>
       <c r="B164" s="1"/>
       <c r="C164" s="5"/>
@@ -3205,9 +2967,8 @@
       <c r="G164" s="5"/>
       <c r="H164" s="1"/>
       <c r="I164" s="1"/>
-      <c r="J164" s="1"/>
-    </row>
-    <row r="165" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="5"/>
       <c r="B165" s="1"/>
       <c r="C165" s="5"/>
@@ -3217,9 +2978,8 @@
       <c r="G165" s="5"/>
       <c r="H165" s="1"/>
       <c r="I165" s="1"/>
-      <c r="J165" s="1"/>
-    </row>
-    <row r="166" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="5"/>
       <c r="B166" s="1"/>
       <c r="C166" s="5"/>
@@ -3229,9 +2989,8 @@
       <c r="G166" s="5"/>
       <c r="H166" s="1"/>
       <c r="I166" s="1"/>
-      <c r="J166" s="1"/>
-    </row>
-    <row r="167" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="5"/>
       <c r="B167" s="1"/>
       <c r="C167" s="5"/>
@@ -3241,9 +3000,8 @@
       <c r="G167" s="5"/>
       <c r="H167" s="1"/>
       <c r="I167" s="1"/>
-      <c r="J167" s="1"/>
-    </row>
-    <row r="168" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="5"/>
       <c r="B168" s="1"/>
       <c r="C168" s="5"/>
@@ -3253,9 +3011,8 @@
       <c r="G168" s="5"/>
       <c r="H168" s="1"/>
       <c r="I168" s="1"/>
-      <c r="J168" s="1"/>
-    </row>
-    <row r="169" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="5"/>
       <c r="B169" s="1"/>
       <c r="C169" s="5"/>
@@ -3265,9 +3022,8 @@
       <c r="G169" s="5"/>
       <c r="H169" s="1"/>
       <c r="I169" s="1"/>
-      <c r="J169" s="1"/>
-    </row>
-    <row r="170" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="5"/>
       <c r="B170" s="1"/>
       <c r="C170" s="5"/>
@@ -3277,9 +3033,8 @@
       <c r="G170" s="5"/>
       <c r="H170" s="1"/>
       <c r="I170" s="1"/>
-      <c r="J170" s="1"/>
-    </row>
-    <row r="171" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5"/>
       <c r="B171" s="1"/>
       <c r="C171" s="5"/>
@@ -3289,9 +3044,8 @@
       <c r="G171" s="5"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-      <c r="J171" s="1"/>
-    </row>
-    <row r="172" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5"/>
       <c r="B172" s="1"/>
       <c r="C172" s="5"/>
@@ -3301,9 +3055,8 @@
       <c r="G172" s="5"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-      <c r="J172" s="1"/>
-    </row>
-    <row r="173" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5"/>
       <c r="B173" s="1"/>
       <c r="C173" s="5"/>
@@ -3313,9 +3066,8 @@
       <c r="G173" s="5"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-      <c r="J173" s="1"/>
-    </row>
-    <row r="174" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5"/>
       <c r="B174" s="1"/>
       <c r="C174" s="5"/>
@@ -3325,9 +3077,8 @@
       <c r="G174" s="5"/>
       <c r="H174" s="1"/>
       <c r="I174" s="1"/>
-      <c r="J174" s="1"/>
-    </row>
-    <row r="175" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5"/>
       <c r="B175" s="1"/>
       <c r="C175" s="5"/>
@@ -3337,9 +3088,8 @@
       <c r="G175" s="5"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-      <c r="J175" s="1"/>
-    </row>
-    <row r="176" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5"/>
       <c r="B176" s="1"/>
       <c r="C176" s="5"/>
@@ -3349,9 +3099,8 @@
       <c r="G176" s="5"/>
       <c r="H176" s="1"/>
       <c r="I176" s="1"/>
-      <c r="J176" s="1"/>
-    </row>
-    <row r="177" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5"/>
       <c r="B177" s="1"/>
       <c r="C177" s="5"/>
@@ -3361,9 +3110,8 @@
       <c r="G177" s="5"/>
       <c r="H177" s="1"/>
       <c r="I177" s="1"/>
-      <c r="J177" s="1"/>
-    </row>
-    <row r="178" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5"/>
       <c r="B178" s="1"/>
       <c r="C178" s="5"/>
@@ -3373,9 +3121,8 @@
       <c r="G178" s="5"/>
       <c r="H178" s="1"/>
       <c r="I178" s="1"/>
-      <c r="J178" s="1"/>
-    </row>
-    <row r="179" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5"/>
       <c r="B179" s="1"/>
       <c r="C179" s="5"/>
@@ -3385,170 +3132,169 @@
       <c r="G179" s="5"/>
       <c r="H179" s="1"/>
       <c r="I179" s="1"/>
-      <c r="J179" s="1"/>
-    </row>
-    <row r="180" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180"/>
       <c r="C180"/>
       <c r="D180"/>
       <c r="E180"/>
       <c r="G180"/>
     </row>
-    <row r="181" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181"/>
       <c r="C181"/>
       <c r="D181"/>
       <c r="E181"/>
       <c r="G181"/>
     </row>
-    <row r="182" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182"/>
       <c r="C182"/>
       <c r="D182"/>
       <c r="E182"/>
       <c r="G182"/>
     </row>
-    <row r="183" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183"/>
       <c r="C183"/>
       <c r="D183"/>
       <c r="E183"/>
       <c r="G183"/>
     </row>
-    <row r="184" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184"/>
       <c r="C184"/>
       <c r="D184"/>
       <c r="E184"/>
       <c r="G184"/>
     </row>
-    <row r="185" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185"/>
       <c r="C185"/>
       <c r="D185"/>
       <c r="E185"/>
       <c r="G185"/>
     </row>
-    <row r="186" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186"/>
       <c r="C186"/>
       <c r="D186"/>
       <c r="E186"/>
       <c r="G186"/>
     </row>
-    <row r="187" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187"/>
       <c r="C187"/>
       <c r="D187"/>
       <c r="E187"/>
       <c r="G187"/>
     </row>
-    <row r="188" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188"/>
       <c r="C188"/>
       <c r="D188"/>
       <c r="E188"/>
       <c r="G188"/>
     </row>
-    <row r="189" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189"/>
       <c r="C189"/>
       <c r="D189"/>
       <c r="E189"/>
       <c r="G189"/>
     </row>
-    <row r="190" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190"/>
       <c r="C190"/>
       <c r="D190"/>
       <c r="E190"/>
       <c r="G190"/>
     </row>
-    <row r="191" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191"/>
       <c r="C191"/>
       <c r="D191"/>
       <c r="E191"/>
       <c r="G191"/>
     </row>
-    <row r="192" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192"/>
       <c r="C192"/>
       <c r="D192"/>
       <c r="E192"/>
       <c r="G192"/>
     </row>
-    <row r="193" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193"/>
       <c r="C193"/>
       <c r="D193"/>
       <c r="E193"/>
       <c r="G193"/>
     </row>
-    <row r="194" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194"/>
       <c r="C194"/>
       <c r="D194"/>
       <c r="E194"/>
       <c r="G194"/>
     </row>
-    <row r="195" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195"/>
       <c r="C195"/>
       <c r="D195"/>
       <c r="E195"/>
       <c r="G195"/>
     </row>
-    <row r="196" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196"/>
       <c r="C196"/>
       <c r="D196"/>
       <c r="E196"/>
       <c r="G196"/>
     </row>
-    <row r="197" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197"/>
       <c r="C197"/>
       <c r="D197"/>
       <c r="E197"/>
       <c r="G197"/>
     </row>
-    <row r="198" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198"/>
       <c r="C198"/>
       <c r="D198"/>
       <c r="E198"/>
       <c r="G198"/>
     </row>
-    <row r="199" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199"/>
       <c r="C199"/>
       <c r="D199"/>
       <c r="E199"/>
       <c r="G199"/>
     </row>
-    <row r="200" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200"/>
       <c r="C200"/>
       <c r="D200"/>
       <c r="E200"/>
       <c r="G200"/>
     </row>
-    <row r="201" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201"/>
       <c r="C201"/>
       <c r="D201"/>
       <c r="E201"/>
       <c r="G201"/>
     </row>
-    <row r="202" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202"/>
       <c r="C202"/>
       <c r="D202"/>
       <c r="E202"/>
       <c r="G202"/>
     </row>
-    <row r="203" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="C203"/>
       <c r="D203" s="5"/>
@@ -3557,9 +3303,8 @@
       <c r="G203" s="5"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-      <c r="J203" s="1"/>
-    </row>
-    <row r="204" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="204" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204"/>
       <c r="C204"/>
       <c r="D204" s="5"/>
@@ -3568,9 +3313,8 @@
       <c r="G204" s="5"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-      <c r="J204" s="1"/>
-    </row>
-    <row r="205" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="205" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="5"/>
       <c r="B205" s="1"/>
       <c r="C205" s="5"/>
@@ -3580,7 +3324,7 @@
       <c r="G205" s="5"/>
       <c r="H205" s="1"/>
     </row>
-    <row r="206" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="5"/>
       <c r="B206" s="1"/>
       <c r="C206" s="5"/>
@@ -3590,7 +3334,7 @@
       <c r="G206" s="5"/>
       <c r="H206" s="1"/>
     </row>
-    <row r="207" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="5"/>
       <c r="B207" s="1"/>
       <c r="C207" s="5"/>
@@ -3600,7 +3344,7 @@
       <c r="G207" s="5"/>
       <c r="H207" s="1"/>
     </row>
-    <row r="208" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="5"/>
       <c r="B208" s="1"/>
       <c r="C208" s="5"/>
@@ -6330,7 +6074,7 @@
       <c r="G480" s="5"/>
       <c r="H480" s="1"/>
     </row>
-    <row r="481" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="5"/>
       <c r="B481" s="1"/>
       <c r="C481" s="5"/>
@@ -6340,7 +6084,7 @@
       <c r="G481" s="5"/>
       <c r="H481" s="1"/>
     </row>
-    <row r="482" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="5"/>
       <c r="B482" s="1"/>
       <c r="C482" s="5"/>
@@ -6350,7 +6094,7 @@
       <c r="G482" s="5"/>
       <c r="H482" s="1"/>
     </row>
-    <row r="483" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="5"/>
       <c r="B483" s="1"/>
       <c r="C483" s="5"/>
@@ -6360,7 +6104,7 @@
       <c r="G483" s="5"/>
       <c r="H483" s="1"/>
     </row>
-    <row r="484" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="5"/>
       <c r="B484" s="1"/>
       <c r="C484" s="5"/>
@@ -6370,7 +6114,7 @@
       <c r="G484" s="5"/>
       <c r="H484" s="1"/>
     </row>
-    <row r="485" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="5"/>
       <c r="B485" s="1"/>
       <c r="C485" s="5"/>
@@ -6380,7 +6124,7 @@
       <c r="G485" s="5"/>
       <c r="H485" s="1"/>
     </row>
-    <row r="486" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="5"/>
       <c r="B486" s="1"/>
       <c r="C486" s="5"/>
@@ -6390,7 +6134,7 @@
       <c r="G486" s="5"/>
       <c r="H486" s="1"/>
     </row>
-    <row r="487" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="5"/>
       <c r="B487" s="1"/>
       <c r="C487" s="5"/>
@@ -6400,7 +6144,7 @@
       <c r="G487" s="5"/>
       <c r="H487" s="1"/>
     </row>
-    <row r="488" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="5"/>
       <c r="B488" s="1"/>
       <c r="C488" s="5"/>
@@ -6410,7 +6154,7 @@
       <c r="G488" s="5"/>
       <c r="H488" s="1"/>
     </row>
-    <row r="489" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="5"/>
       <c r="B489" s="1"/>
       <c r="C489" s="5"/>
@@ -6420,7 +6164,7 @@
       <c r="G489" s="5"/>
       <c r="H489" s="1"/>
     </row>
-    <row r="490" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="5"/>
       <c r="B490" s="1"/>
       <c r="C490" s="5"/>
@@ -6430,7 +6174,7 @@
       <c r="G490" s="5"/>
       <c r="H490" s="1"/>
     </row>
-    <row r="491" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="5"/>
       <c r="B491" s="1"/>
       <c r="C491" s="5"/>
@@ -6440,7 +6184,7 @@
       <c r="G491" s="5"/>
       <c r="H491" s="1"/>
     </row>
-    <row r="492" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="5"/>
       <c r="B492" s="1"/>
       <c r="C492" s="5"/>
@@ -6450,7 +6194,7 @@
       <c r="G492" s="5"/>
       <c r="H492" s="1"/>
     </row>
-    <row r="493" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="5"/>
       <c r="B493" s="1"/>
       <c r="C493" s="5"/>
@@ -6459,10 +6203,9 @@
       <c r="F493" s="1"/>
       <c r="G493" s="5"/>
       <c r="H493" s="1"/>
-      <c r="I493" s="13"/>
-      <c r="J493" s="13"/>
-    </row>
-    <row r="494" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I493" s="12"/>
+    </row>
+    <row r="494" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="5"/>
       <c r="B494" s="1"/>
       <c r="C494" s="5"/>
@@ -6472,7 +6215,7 @@
       <c r="G494" s="6"/>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="5"/>
       <c r="B495" s="1"/>
       <c r="C495" s="5"/>
@@ -6482,7 +6225,7 @@
       <c r="G495" s="5"/>
       <c r="H495" s="1"/>
     </row>
-    <row r="496" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="5"/>
       <c r="B496" s="1"/>
       <c r="C496" s="5"/>
